--- a/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_pol.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_pol.xlsx
@@ -419,13 +419,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0553937931714478</v>
+        <v>-0.0513286442643204</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.07783652910316</v>
+        <v>-0.0671790184472558</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0329510572397356</v>
+        <v>-0.0354782700813851</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -436,13 +436,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0491821922914991</v>
+        <v>-0.0210317924172343</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.141424203314955</v>
+        <v>-0.0899790829080258</v>
       </c>
       <c r="D3" t="n">
-        <v>0.043059818731957</v>
+        <v>0.0479154980735572</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -453,13 +453,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.00822381968960096</v>
+        <v>-0.0286766835024839</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0761512193437185</v>
+        <v>-0.0757762410179419</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0597035799645166</v>
+        <v>0.0184228740129741</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -470,13 +470,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.141221268323182</v>
+        <v>-0.11767787391967</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.198702887858625</v>
+        <v>-0.157979380031269</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0837396487877382</v>
+        <v>-0.0773763678080713</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -487,13 +487,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.011084959434856</v>
+        <v>-0.015446697253306</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0746716285093984</v>
+        <v>-0.0607325968162489</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0525017096396863</v>
+        <v>0.0298392023096368</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -504,13 +504,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0435662160669329</v>
+        <v>-0.00443392337873186</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.11514210224961</v>
+        <v>-0.0553872715935624</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0280096701157444</v>
+        <v>0.0465194248360987</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -521,13 +521,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0187295828639745</v>
+        <v>-0.0132765409464355</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.108706582796307</v>
+        <v>-0.0766354839750646</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0712474170683576</v>
+        <v>0.0500824020821935</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -538,13 +538,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0246091883773727</v>
+        <v>-0.013238534562945</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.124972610353472</v>
+        <v>-0.0849031273204363</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0757542335987265</v>
+        <v>0.0584260581945463</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -555,13 +555,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.00447723507067522</v>
+        <v>-0.0179475447968417</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0812377343424823</v>
+        <v>-0.0703737890114247</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0722832642011319</v>
+        <v>0.0344786994177414</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -572,13 +572,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.0208122984699962</v>
+        <v>-0.0328816663556054</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0744238443220505</v>
+        <v>-0.0698517187017517</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0327992473820581</v>
+        <v>0.00408838599054094</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -589,13 +589,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.112289221372681</v>
+        <v>-0.116861012786918</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.169801766423926</v>
+        <v>-0.157909590940409</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0547766763214346</v>
+        <v>-0.0758124346334275</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -606,13 +606,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0013490578540637</v>
+        <v>-0.015055210338895</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0652372897255701</v>
+        <v>-0.0621313388829774</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0679354054336975</v>
+        <v>0.0320209182051874</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>

--- a/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_pol.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_pol.xlsx
@@ -419,13 +419,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0513286442643204</v>
+        <v>-0.0513286442643216</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0671790184472558</v>
+        <v>-0.0671790184472573</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0354782700813851</v>
+        <v>-0.0354782700813859</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -436,13 +436,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0210317924172343</v>
+        <v>-0.0210317924172341</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0899790829080258</v>
+        <v>-0.0899790829080257</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0479154980735572</v>
+        <v>0.0479154980735574</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -453,13 +453,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0286766835024839</v>
+        <v>-0.0286766835024838</v>
       </c>
       <c r="C4" t="n">
         <v>-0.0757762410179419</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0184228740129741</v>
+        <v>0.0184228740129743</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -487,13 +487,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.015446697253306</v>
+        <v>-0.0154466972533059</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0607325968162489</v>
+        <v>-0.0607325968162487</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0298392023096368</v>
+        <v>0.029839202309637</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -504,13 +504,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.00443392337873186</v>
+        <v>-0.00443392337873192</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0553872715935624</v>
+        <v>-0.0553872715935626</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0465194248360987</v>
+        <v>0.0465194248360988</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -521,10 +521,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0132765409464355</v>
+        <v>-0.0132765409464356</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0766354839750646</v>
+        <v>-0.0766354839750647</v>
       </c>
       <c r="D8" t="n">
         <v>0.0500824020821935</v>
@@ -538,10 +538,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.013238534562945</v>
+        <v>-0.0132385345629449</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0849031273204363</v>
+        <v>-0.0849031273204361</v>
       </c>
       <c r="D9" t="n">
         <v>0.0584260581945463</v>
@@ -555,10 +555,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.0179475447968417</v>
+        <v>-0.0179475447968418</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0703737890114247</v>
+        <v>-0.070373789011425</v>
       </c>
       <c r="D10" t="n">
         <v>0.0344786994177414</v>
@@ -572,13 +572,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.0328816663556054</v>
+        <v>-0.0328816663556051</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0698517187017517</v>
+        <v>-0.0698517187017512</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00408838599054094</v>
+        <v>0.00408838599054104</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -589,13 +589,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.116861012786918</v>
+        <v>-0.116861012786919</v>
       </c>
       <c r="C12" t="n">
         <v>-0.157909590940409</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0758124346334275</v>
+        <v>-0.0758124346334278</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -606,13 +606,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.015055210338895</v>
+        <v>-0.0150552103388948</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0621313388829774</v>
+        <v>-0.0621313388829773</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0320209182051874</v>
+        <v>0.0320209182051877</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>

--- a/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_pol.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_pol.xlsx
@@ -419,13 +419,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0513286442643216</v>
+        <v>-0.0513286442643209</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0671790184472573</v>
+        <v>-0.0671790184472563</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0354782700813859</v>
+        <v>-0.0354782700813855</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -436,10 +436,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0210317924172341</v>
+        <v>-0.0210317924172343</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0899790829080257</v>
+        <v>-0.089979082908026</v>
       </c>
       <c r="D3" t="n">
         <v>0.0479154980735574</v>
@@ -453,13 +453,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0286766835024838</v>
+        <v>-0.0290253642767434</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0757762410179419</v>
+        <v>-0.0761113952554051</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0184228740129743</v>
+        <v>0.0180606667019183</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -473,10 +473,10 @@
         <v>-0.11767787391967</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.157979380031269</v>
+        <v>-0.157979380031268</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0773763678080713</v>
+        <v>-0.0773763678080708</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -490,10 +490,10 @@
         <v>-0.0154466972533059</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0607325968162487</v>
+        <v>-0.0607325968162486</v>
       </c>
       <c r="D6" t="n">
-        <v>0.029839202309637</v>
+        <v>0.0298392023096368</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -504,13 +504,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.00443392337873192</v>
+        <v>-0.00443392337873184</v>
       </c>
       <c r="C7" t="n">
         <v>-0.0553872715935626</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0465194248360988</v>
+        <v>0.0465194248360989</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -524,10 +524,10 @@
         <v>-0.0132765409464356</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0766354839750647</v>
+        <v>-0.0766354839750649</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0500824020821935</v>
+        <v>0.0500824020821937</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -538,13 +538,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0132385345629449</v>
+        <v>-0.0132385345629446</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0849031273204361</v>
+        <v>-0.0849031273204359</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0584260581945463</v>
+        <v>0.0584260581945468</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -555,10 +555,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.0179475447968418</v>
+        <v>-0.0179475447968416</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.070373789011425</v>
+        <v>-0.0703737890114246</v>
       </c>
       <c r="D10" t="n">
         <v>0.0344786994177414</v>
@@ -572,13 +572,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.0328816663556051</v>
+        <v>-0.0328816663556053</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0698517187017512</v>
+        <v>-0.0698517187017514</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00408838599054104</v>
+        <v>0.00408838599054093</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -592,10 +592,10 @@
         <v>-0.116861012786919</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.157909590940409</v>
+        <v>-0.15790959094041</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0758124346334278</v>
+        <v>-0.075812434633428</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -606,13 +606,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.0150552103388948</v>
+        <v>-0.0150552103388949</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0621313388829773</v>
+        <v>-0.0621313388829775</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0320209182051877</v>
+        <v>0.0320209182051878</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
